--- a/zad7/nowe_7.xlsx
+++ b/zad7/nowe_7.xlsx
@@ -213,7 +213,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pl-PL"/>
-              <a:t>Wykres</a:t>
+              <a:t>Podsumowanie</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -862,11 +862,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1023205248"/>
-        <c:axId val="-1023198720"/>
+        <c:axId val="341686256"/>
+        <c:axId val="341677008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1023205248"/>
+        <c:axId val="341686256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -979,12 +979,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1023198720"/>
+        <c:crossAx val="341677008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1023198720"/>
+        <c:axId val="341677008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1041,7 +1041,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1023205248"/>
+        <c:crossAx val="341686256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1156,31 +1156,31 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="pl-PL" sz="1800">
+              <a:rPr lang="pl-PL" sz="1200">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Prawdopodobieństwa stanów tylko dla λ</a:t>
+              <a:t>Prawdopodobieństwa stanów dla λ</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="pl-PL" sz="1800" baseline="30000">
+              <a:rPr lang="pl-PL" sz="1200" baseline="30000">
                 <a:effectLst/>
               </a:rPr>
               <a:t>1</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="pl-PL" sz="1800">
+              <a:rPr lang="pl-PL" sz="1200">
                 <a:effectLst/>
               </a:rPr>
               <a:t> = 10  λ</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="pl-PL" sz="1800" baseline="30000">
+              <a:rPr lang="pl-PL" sz="1200" baseline="30000">
                 <a:effectLst/>
               </a:rPr>
               <a:t>2</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="pl-PL" sz="1800">
+              <a:rPr lang="pl-PL" sz="1200">
                 <a:effectLst/>
               </a:rPr>
               <a:t> = 20</a:t>
@@ -1351,11 +1351,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1028414672"/>
-        <c:axId val="-1028410320"/>
+        <c:axId val="341679184"/>
+        <c:axId val="341680816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1028414672"/>
+        <c:axId val="341679184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1398,7 +1398,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1028410320"/>
+        <c:crossAx val="341680816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1406,7 +1406,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1028410320"/>
+        <c:axId val="341680816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1457,7 +1457,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1028414672"/>
+        <c:crossAx val="341679184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2609,16 +2609,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>771525</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2935,8 +2935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="L65" sqref="L65"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3100,7 +3100,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13">
-        <f t="shared" ref="B13:B19" si="1">(E3+F3)/$D$2</f>
+        <f t="shared" ref="B13:B18" si="1">(E3+F3)/$D$2</f>
         <v>1.2</v>
       </c>
       <c r="C13">
@@ -3259,7 +3259,7 @@
         <v>1</v>
       </c>
       <c r="D23">
-        <f t="shared" ref="D23:E23" si="3">($B12^D$22)/FACT(D$22)</f>
+        <f t="shared" ref="D23" si="3">($B12^D$22)/FACT(D$22)</f>
         <v>0.6</v>
       </c>
       <c r="E23">
@@ -3275,11 +3275,11 @@
         <v>1</v>
       </c>
       <c r="K23">
-        <f t="shared" ref="K23:O23" si="4">($B12/$A$2)^K$22</f>
+        <f>($B12/$A$2)^K$22</f>
         <v>0.19999999999999998</v>
       </c>
       <c r="L23">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="K23:O23" si="4">($B12/$A$2)^L$22</f>
         <v>3.9999999999999994E-2</v>
       </c>
       <c r="M23">
@@ -3303,11 +3303,11 @@
         <v>1</v>
       </c>
       <c r="T23">
-        <f t="shared" ref="T23:W23" si="5">($D12/$A$2)^T$22</f>
+        <f>($D12/$A$2)^T$22</f>
         <v>0.13333333333333333</v>
       </c>
       <c r="U23">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="T23:W23" si="5">($D12/$A$2)^U$22</f>
         <v>1.7777777777777778E-2</v>
       </c>
       <c r="V23">
@@ -3331,259 +3331,259 @@
         <v>1.0239999999999992E-7</v>
       </c>
       <c r="AD23">
-        <f>(D12/A$2)^(C$2-B$2)</f>
+        <f t="shared" ref="AD23:AD29" si="6">(D12/A$2)^(C$2-B$2)</f>
         <v>3.1604938271604939E-4</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C24">
-        <f t="shared" ref="C24:E30" si="6">($B13^C$22)/FACT(C$22)</f>
+        <f t="shared" ref="C24:E28" si="7">($B13^C$22)/FACT(C$22)</f>
         <v>1</v>
       </c>
       <c r="D24">
+        <f t="shared" si="7"/>
+        <v>1.2</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="7"/>
+        <v>0.72</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ref="F24:F29" si="8">SUM(C24:E24)</f>
+        <v>2.92</v>
+      </c>
+      <c r="J24">
+        <f t="shared" ref="J24:O28" si="9">($B13/$A$2)^J$22</f>
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="9"/>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="9"/>
+        <v>0.15999999999999998</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="9"/>
+        <v>6.3999999999999987E-2</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="9"/>
+        <v>2.5599999999999991E-2</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="9"/>
+        <v>1.0239999999999996E-2</v>
+      </c>
+      <c r="P24">
+        <f t="shared" ref="P24:P29" si="10">SUM(J24:O24)</f>
+        <v>1.65984</v>
+      </c>
+      <c r="S24">
+        <f t="shared" ref="S24:W29" si="11">($D13/$A$2)^S$22</f>
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="11"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="11"/>
+        <v>7.1111111111111111E-2</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="11"/>
+        <v>1.8962962962962963E-2</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="11"/>
+        <v>5.0567901234567902E-3</v>
+      </c>
+      <c r="X24">
+        <f t="shared" ref="X24:X29" si="12">SUM(S24:W24)</f>
+        <v>1.3617975308641976</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" ref="Z24:Z28" si="13">($B13^$A$2)/FACT($A$2)</f>
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" ref="AB24:AB28" si="14">($B13/$A$2)^D$2</f>
+        <v>1.0485759999999992E-4</v>
+      </c>
+      <c r="AD24">
         <f t="shared" si="6"/>
-        <v>1.2</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="6"/>
-        <v>0.72</v>
-      </c>
-      <c r="F24">
-        <f t="shared" ref="F24:F29" si="7">SUM(C24:E24)</f>
-        <v>2.92</v>
-      </c>
-      <c r="J24">
-        <f t="shared" ref="J24:O29" si="8">($B13/$A$2)^J$22</f>
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="8"/>
-        <v>0.39999999999999997</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="8"/>
-        <v>0.15999999999999998</v>
-      </c>
-      <c r="M24">
-        <f t="shared" si="8"/>
-        <v>6.3999999999999987E-2</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="8"/>
-        <v>2.5599999999999991E-2</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="8"/>
-        <v>1.0239999999999996E-2</v>
-      </c>
-      <c r="P24">
-        <f t="shared" ref="P24:P29" si="9">SUM(J24:O24)</f>
-        <v>1.65984</v>
-      </c>
-      <c r="S24">
-        <f t="shared" ref="S24:W29" si="10">($D13/$A$2)^S$22</f>
-        <v>1</v>
-      </c>
-      <c r="T24">
-        <f t="shared" si="10"/>
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="U24">
-        <f t="shared" si="10"/>
-        <v>7.1111111111111111E-2</v>
-      </c>
-      <c r="V24">
-        <f t="shared" si="10"/>
-        <v>1.8962962962962963E-2</v>
-      </c>
-      <c r="W24">
-        <f t="shared" si="10"/>
-        <v>5.0567901234567902E-3</v>
-      </c>
-      <c r="X24">
-        <f t="shared" ref="X24:X29" si="11">SUM(S24:W24)</f>
-        <v>1.3617975308641976</v>
-      </c>
-      <c r="Z24">
-        <f t="shared" ref="Z24:Z29" si="12">($B13^$A$2)/FACT($A$2)</f>
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="AB24">
-        <f t="shared" ref="AB24:AB29" si="13">($B13/$A$2)^D$2</f>
-        <v>1.0485759999999992E-4</v>
-      </c>
-      <c r="AD24">
-        <f>(D13/A$2)^(C$2-B$2)</f>
         <v>5.0567901234567902E-3</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C25">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="7"/>
+        <v>1.8</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="7"/>
+        <v>1.62</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="8"/>
+        <v>4.42</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="9"/>
+        <v>0.6</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="9"/>
+        <v>0.36</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="9"/>
+        <v>0.216</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="9"/>
+        <v>0.12959999999999999</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="9"/>
+        <v>7.7759999999999996E-2</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="10"/>
+        <v>2.3833600000000001</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="11"/>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="11"/>
+        <v>0.15999999999999998</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="11"/>
+        <v>6.3999999999999987E-2</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="11"/>
+        <v>2.5599999999999991E-2</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="12"/>
+        <v>1.6496</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="13"/>
+        <v>0.97200000000000009</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="14"/>
+        <v>6.0466175999999991E-3</v>
+      </c>
+      <c r="AD25">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="6"/>
-        <v>1.8</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="6"/>
-        <v>1.62</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="7"/>
-        <v>4.42</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="8"/>
-        <v>0.6</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="8"/>
-        <v>0.36</v>
-      </c>
-      <c r="M25">
-        <f t="shared" si="8"/>
-        <v>0.216</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="8"/>
-        <v>0.12959999999999999</v>
-      </c>
-      <c r="O25">
-        <f t="shared" si="8"/>
-        <v>7.7759999999999996E-2</v>
-      </c>
-      <c r="P25">
-        <f t="shared" si="9"/>
-        <v>2.3833600000000001</v>
-      </c>
-      <c r="S25">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="T25">
-        <f t="shared" si="10"/>
-        <v>0.39999999999999997</v>
-      </c>
-      <c r="U25">
-        <f t="shared" si="10"/>
-        <v>0.15999999999999998</v>
-      </c>
-      <c r="V25">
-        <f t="shared" si="10"/>
-        <v>6.3999999999999987E-2</v>
-      </c>
-      <c r="W25">
-        <f t="shared" si="10"/>
-        <v>2.5599999999999991E-2</v>
-      </c>
-      <c r="X25">
-        <f t="shared" si="11"/>
-        <v>1.6496</v>
-      </c>
-      <c r="Z25">
-        <f t="shared" si="12"/>
-        <v>0.97200000000000009</v>
-      </c>
-      <c r="AB25">
-        <f t="shared" si="13"/>
-        <v>6.0466175999999991E-3</v>
-      </c>
-      <c r="AD25">
-        <f>(D14/A$2)^(C$2-B$2)</f>
         <v>2.5599999999999991E-2</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C26">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="7"/>
+        <v>2.4</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="7"/>
+        <v>2.88</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="8"/>
+        <v>6.2799999999999994</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="9"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="9"/>
+        <v>0.6399999999999999</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="9"/>
+        <v>0.5119999999999999</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="9"/>
+        <v>0.40959999999999985</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="9"/>
+        <v>0.32767999999999986</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="10"/>
+        <v>3.6892799999999992</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="11"/>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="11"/>
+        <v>0.28444444444444444</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="11"/>
+        <v>0.1517037037037037</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="11"/>
+        <v>8.0908641975308643E-2</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="12"/>
+        <v>2.0503901234567898</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="13"/>
+        <v>2.3039999999999998</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="14"/>
+        <v>0.10737418239999992</v>
+      </c>
+      <c r="AD26">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="6"/>
-        <v>2.4</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="6"/>
-        <v>2.88</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="7"/>
-        <v>6.2799999999999994</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="8"/>
-        <v>0.79999999999999993</v>
-      </c>
-      <c r="L26">
-        <f t="shared" si="8"/>
-        <v>0.6399999999999999</v>
-      </c>
-      <c r="M26">
-        <f t="shared" si="8"/>
-        <v>0.5119999999999999</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="8"/>
-        <v>0.40959999999999985</v>
-      </c>
-      <c r="O26">
-        <f t="shared" si="8"/>
-        <v>0.32767999999999986</v>
-      </c>
-      <c r="P26">
-        <f t="shared" si="9"/>
-        <v>3.6892799999999992</v>
-      </c>
-      <c r="S26">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="T26">
-        <f t="shared" si="10"/>
-        <v>0.53333333333333333</v>
-      </c>
-      <c r="U26">
-        <f t="shared" si="10"/>
-        <v>0.28444444444444444</v>
-      </c>
-      <c r="V26">
-        <f t="shared" si="10"/>
-        <v>0.1517037037037037</v>
-      </c>
-      <c r="W26">
-        <f t="shared" si="10"/>
-        <v>8.0908641975308643E-2</v>
-      </c>
-      <c r="X26">
-        <f t="shared" si="11"/>
-        <v>2.0503901234567898</v>
-      </c>
-      <c r="Z26">
-        <f t="shared" si="12"/>
-        <v>2.3039999999999998</v>
-      </c>
-      <c r="AB26">
-        <f t="shared" si="13"/>
-        <v>0.10737418239999992</v>
-      </c>
-      <c r="AD26">
-        <f>(D15/A$2)^(C$2-B$2)</f>
         <v>8.0908641975308643E-2</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="D27">
@@ -3591,31 +3591,31 @@
         <v>3</v>
       </c>
       <c r="E27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.5</v>
       </c>
       <c r="F27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.5</v>
       </c>
       <c r="J27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="K27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="L27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="M27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="N27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O27">
@@ -3623,23 +3623,23 @@
         <v>1</v>
       </c>
       <c r="P27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="S27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="T27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.44444444444444442</v>
       </c>
       <c r="V27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.29629629629629628</v>
       </c>
       <c r="W27">
@@ -3647,101 +3647,101 @@
         <v>0.19753086419753085</v>
       </c>
       <c r="X27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.6049382716049378</v>
       </c>
       <c r="Z27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.5</v>
       </c>
       <c r="AB27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AD27">
-        <f>(D16/A$2)^(C$2-B$2)</f>
+        <f t="shared" si="6"/>
         <v>0.19753086419753085</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C28">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="7"/>
+        <v>3.6</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="7"/>
+        <v>6.48</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="8"/>
+        <v>11.08</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="9"/>
+        <v>1.2</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="9"/>
+        <v>1.44</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="9"/>
+        <v>1.728</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="9"/>
+        <v>2.0735999999999999</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="9"/>
+        <v>2.4883199999999999</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="10"/>
+        <v>9.9299199999999992</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="11"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="11"/>
+        <v>0.6399999999999999</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="11"/>
+        <v>0.5119999999999999</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="11"/>
+        <v>0.40959999999999985</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="12"/>
+        <v>3.3615999999999993</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="13"/>
+        <v>7.7760000000000007</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="14"/>
+        <v>6.1917364223999991</v>
+      </c>
+      <c r="AD28">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="6"/>
-        <v>3.6</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="6"/>
-        <v>6.48</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="7"/>
-        <v>11.08</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="8"/>
-        <v>1.2</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="8"/>
-        <v>1.44</v>
-      </c>
-      <c r="M28">
-        <f t="shared" si="8"/>
-        <v>1.728</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="8"/>
-        <v>2.0735999999999999</v>
-      </c>
-      <c r="O28">
-        <f t="shared" si="8"/>
-        <v>2.4883199999999999</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="9"/>
-        <v>9.9299199999999992</v>
-      </c>
-      <c r="S28">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="T28">
-        <f t="shared" si="10"/>
-        <v>0.79999999999999993</v>
-      </c>
-      <c r="U28">
-        <f t="shared" si="10"/>
-        <v>0.6399999999999999</v>
-      </c>
-      <c r="V28">
-        <f t="shared" si="10"/>
-        <v>0.5119999999999999</v>
-      </c>
-      <c r="W28">
-        <f t="shared" si="10"/>
-        <v>0.40959999999999985</v>
-      </c>
-      <c r="X28">
-        <f t="shared" si="11"/>
-        <v>3.3615999999999993</v>
-      </c>
-      <c r="Z28">
-        <f t="shared" si="12"/>
-        <v>7.7760000000000007</v>
-      </c>
-      <c r="AB28">
-        <f t="shared" si="13"/>
-        <v>6.1917364223999991</v>
-      </c>
-      <c r="AD28">
-        <f>(D17/A$2)^(C$2-B$2)</f>
         <v>0.40959999999999985</v>
       </c>
     </row>
@@ -3751,15 +3751,15 @@
         <v>1</v>
       </c>
       <c r="D29">
-        <f t="shared" ref="D29:E29" si="14">($B18^D$22)/FACT(D$22)</f>
+        <f t="shared" ref="D29:E29" si="15">($B18^D$22)/FACT(D$22)</f>
         <v>4.2</v>
       </c>
       <c r="E29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8.82</v>
       </c>
       <c r="F29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14.02</v>
       </c>
       <c r="J29">
@@ -3767,51 +3767,51 @@
         <v>1</v>
       </c>
       <c r="K29">
-        <f t="shared" ref="K29:O29" si="15">($B18/$A$2)^K$22</f>
+        <f t="shared" ref="K29:O29" si="16">($B18/$A$2)^K$22</f>
         <v>1.4000000000000001</v>
       </c>
       <c r="L29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.9600000000000004</v>
       </c>
       <c r="M29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.7440000000000007</v>
       </c>
       <c r="N29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.8416000000000015</v>
       </c>
       <c r="O29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5.3782400000000026</v>
       </c>
       <c r="P29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16.323840000000004</v>
       </c>
       <c r="S29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="T29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.93333333333333324</v>
       </c>
       <c r="U29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.87111111111111095</v>
       </c>
       <c r="V29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.81303703703703678</v>
       </c>
       <c r="W29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.75883456790123427</v>
       </c>
       <c r="X29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.3763160493827158</v>
       </c>
       <c r="Z29">
@@ -3823,7 +3823,7 @@
         <v>28.925465497600026</v>
       </c>
       <c r="AD29">
-        <f>(D18/A$2)^(C$2-B$2)</f>
+        <f t="shared" si="6"/>
         <v>0.75883456790123427</v>
       </c>
     </row>
@@ -3878,157 +3878,157 @@
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C33">
-        <f t="shared" ref="C33:C38" si="16">(F24+(Z24*(P24+(AB24*X24))))^(-1)</f>
+        <f t="shared" ref="C33:C38" si="17">(F24+(Z24*(P24+(AB24*X24))))^(-1)</f>
         <v>0.29428425999548863</v>
       </c>
       <c r="I33">
-        <f>C33*Z24*AB24*AD24</f>
+        <f t="shared" ref="I32:I38" si="18">C33*Z24*AB24*AD24</f>
         <v>4.4940134130068759E-8</v>
       </c>
       <c r="L33">
-        <f t="shared" ref="L33:L38" si="17">C33*Z24*AB24*X24</f>
+        <f t="shared" ref="L33:L38" si="19">C33*Z24*AB24*X24</f>
         <v>1.2102413230707306E-5</v>
       </c>
       <c r="N33">
-        <f t="shared" ref="N33:N38" si="18">I33*(D13/B13)</f>
+        <f t="shared" ref="N33:N38" si="20">I33*(D13/B13)</f>
         <v>2.9960089420045846E-8</v>
       </c>
       <c r="P33">
-        <f t="shared" ref="P33:P38" si="19">L33*(C13/B13)</f>
+        <f t="shared" ref="P33:P38" si="21">L33*(C13/B13)</f>
         <v>4.0341377435691022E-6</v>
       </c>
       <c r="R33">
-        <f t="shared" ref="R33:R38" si="20">N33+P33</f>
+        <f t="shared" ref="R33:R38" si="22">N33+P33</f>
         <v>4.0640978329891477E-6</v>
       </c>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.14822893545692614</v>
       </c>
       <c r="I34">
-        <f>C34*Z25*AB25*AD25</f>
+        <f t="shared" si="18"/>
         <v>2.2302406314090139E-5</v>
       </c>
       <c r="L34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.4371113068641838E-3</v>
       </c>
       <c r="N34">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.4868270876060091E-5</v>
       </c>
       <c r="P34">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.7903710228806124E-4</v>
       </c>
       <c r="R34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>4.9390537316412134E-4</v>
       </c>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>6.5413572134630671E-2</v>
       </c>
       <c r="I35">
-        <f>C35*Z26*AB26*AD26</f>
+        <f t="shared" si="18"/>
         <v>1.3093179515133134E-3</v>
       </c>
       <c r="L35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3.318078922974449E-2</v>
       </c>
       <c r="N35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>8.7287863434220908E-4</v>
       </c>
       <c r="P35">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.1060263076581497E-2</v>
       </c>
       <c r="R35">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.1933141710923707E-2</v>
       </c>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.1176470588235293E-2</v>
       </c>
       <c r="I36">
-        <f>C36*Z27*AB27*AD27</f>
+        <f t="shared" si="18"/>
         <v>1.8823529411764704E-2</v>
       </c>
       <c r="L36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.248235294117647</v>
       </c>
       <c r="N36">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.2549019607843135E-2</v>
       </c>
       <c r="P36">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>8.2745098039215662E-2</v>
       </c>
       <c r="R36">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>9.5294117647058793E-2</v>
       </c>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C37">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3.9976682470842699E-3</v>
       </c>
       <c r="I37">
-        <f>C37*Z28*AB28*AD28</f>
+        <f t="shared" si="18"/>
         <v>7.8837965991508718E-2</v>
       </c>
       <c r="L37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.64702565057874939</v>
       </c>
       <c r="N37">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>5.2558643994339141E-2</v>
       </c>
       <c r="P37">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.21567521685958313</v>
       </c>
       <c r="R37">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.26823386085392226</v>
       </c>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5.6221379364070794E-4</v>
       </c>
       <c r="I38">
-        <f>C38*Z29*AB29*AD29</f>
+        <f t="shared" si="18"/>
         <v>0.15237916193699105</v>
       </c>
       <c r="L38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.87879414062636185</v>
       </c>
       <c r="N38">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.10158610795799403</v>
       </c>
       <c r="P38">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.29293138020878728</v>
       </c>
       <c r="R38">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.39451748816678134</v>
       </c>
     </row>
@@ -4287,11 +4287,11 @@
         <v>1</v>
       </c>
       <c r="C74">
-        <f t="shared" ref="C74:D74" si="21">($B$16^C73)/FACT(C73)</f>
+        <f t="shared" ref="C74:D74" si="23">($B$16^C73)/FACT(C73)</f>
         <v>3</v>
       </c>
       <c r="D74">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4.5</v>
       </c>
       <c r="E74">
@@ -4299,7 +4299,7 @@
         <v>4.5</v>
       </c>
       <c r="F74">
-        <f t="shared" ref="F74:J74" si="22">(($B$16^$A$2)/FACT($A$2))*(($B$16/$A$2)^(F73-$A$2))</f>
+        <f t="shared" ref="F74:I74" si="24">(($B$16^$A$2)/FACT($A$2))*(($B$16/$A$2)^(F73-$A$2))</f>
         <v>4.5</v>
       </c>
       <c r="G74">
@@ -4311,7 +4311,7 @@
         <v>4.5</v>
       </c>
       <c r="I74">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>4.5</v>
       </c>
       <c r="J74">
@@ -4323,19 +4323,19 @@
         <v>4.5</v>
       </c>
       <c r="L74">
-        <f t="shared" ref="L74:O74" si="23">(($B$16^$A$2)/FACT($A$2))*(($B$16/$A$2)^$B$2)*(($D$16/$A$2)^(L73-($A$2+$B$2)))</f>
+        <f t="shared" ref="L74:O74" si="25">(($B$16^$A$2)/FACT($A$2))*(($B$16/$A$2)^$B$2)*(($D$16/$A$2)^(L73-($A$2+$B$2)))</f>
         <v>3</v>
       </c>
       <c r="M74">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
       <c r="N74">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="O74">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.88888888888888884</v>
       </c>
       <c r="Q74">
@@ -4352,55 +4352,55 @@
         <v>2.1176470588235293E-2</v>
       </c>
       <c r="C75">
-        <f t="shared" ref="C75:O75" si="24">C74*$C$51</f>
+        <f t="shared" ref="C75:O75" si="26">C74*$C$51</f>
         <v>6.3529411764705876E-2</v>
       </c>
       <c r="D75">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>9.5294117647058821E-2</v>
       </c>
       <c r="E75">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>9.5294117647058821E-2</v>
       </c>
       <c r="F75">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>9.5294117647058821E-2</v>
       </c>
       <c r="G75">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>9.5294117647058821E-2</v>
       </c>
       <c r="H75">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>9.5294117647058821E-2</v>
       </c>
       <c r="I75">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>9.5294117647058821E-2</v>
       </c>
       <c r="J75">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>9.5294117647058821E-2</v>
       </c>
       <c r="K75">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>9.5294117647058821E-2</v>
       </c>
       <c r="L75">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>6.3529411764705876E-2</v>
       </c>
       <c r="M75">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>4.2352941176470586E-2</v>
       </c>
       <c r="N75">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2.8235294117647056E-2</v>
       </c>
       <c r="O75">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.8823529411764704E-2</v>
       </c>
       <c r="Q75">
